--- a/output/fit_clients/fit_round_366.xlsx
+++ b/output/fit_clients/fit_round_366.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2037451488.91923</v>
+        <v>2122109730.091091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09061367588878658</v>
+        <v>0.1117622071666937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03473380778147638</v>
+        <v>0.02840749335019268</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1018725745.118873</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2418344066.204733</v>
+        <v>2231720660.849498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1644550820404234</v>
+        <v>0.1715958886917957</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03053935203238991</v>
+        <v>0.04662522459412777</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1209172137.956855</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3214479400.56087</v>
+        <v>3597070898.698285</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1245563464982613</v>
+        <v>0.1168137794690909</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02937735481197401</v>
+        <v>0.03282652729871779</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>132</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1607239658.812666</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4146454817.199639</v>
+        <v>3418647852.726055</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09641508908335959</v>
+        <v>0.07105593533744194</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04963070787364525</v>
+        <v>0.04908734249804851</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2073227402.620049</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2668177949.346185</v>
+        <v>2348849203.001482</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1252217733357298</v>
+        <v>0.105065154024376</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05265617663077267</v>
+        <v>0.05134276436917963</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>69</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1334088931.964983</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2247136410.066541</v>
+        <v>2694753447.484988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09330693806134716</v>
+        <v>0.0698359599654922</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04300005756781217</v>
+        <v>0.04912496726730979</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1123568242.38075</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3211659147.801038</v>
+        <v>2895207506.198533</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1689192223020964</v>
+        <v>0.1339074827663004</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02369867540964858</v>
+        <v>0.02056921448691273</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>117</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1605829653.063028</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1657174926.786977</v>
+        <v>1735246980.877521</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1941191838338729</v>
+        <v>0.1290031296023465</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03261583302164919</v>
+        <v>0.02403918808725221</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>828587537.5802741</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5398872053.085032</v>
+        <v>4029213207.388542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1334526863236021</v>
+        <v>0.1923693830431991</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04963496051531066</v>
+        <v>0.0506962883104671</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>154</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2699436156.753129</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3088830479.562007</v>
+        <v>3067827168.518234</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1911855078107098</v>
+        <v>0.1709531332081562</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04844361984152516</v>
+        <v>0.04144090786385862</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>151</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1544415188.913261</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2731471879.889548</v>
+        <v>2959599276.142027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1590341411391265</v>
+        <v>0.1414866035004528</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05260785021779275</v>
+        <v>0.05367630879490711</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>126</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1365735933.361205</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3349652091.493962</v>
+        <v>4001684308.721071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07585171981860195</v>
+        <v>0.06181016700558415</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02753154086767305</v>
+        <v>0.03006612965411289</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>123</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1674826133.714178</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2856156465.727478</v>
+        <v>3113779755.760397</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1454755288339238</v>
+        <v>0.1457145961304392</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03739261578161429</v>
+        <v>0.02789075534466419</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1428078277.732123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1775363467.793988</v>
+        <v>1647071958.821148</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09772040127728672</v>
+        <v>0.09477109553685144</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04159600050374917</v>
+        <v>0.04438178612848284</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>887681881.8345324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1928573521.706892</v>
+        <v>2625262971.134683</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09605752492703365</v>
+        <v>0.1031586184204445</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04068206226619708</v>
+        <v>0.0398150516761409</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>964286842.7295085</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4538980430.220232</v>
+        <v>3253694977.955803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1493059449028293</v>
+        <v>0.1143227228570056</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04489844795818339</v>
+        <v>0.04543498633546999</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>107</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2269490223.033885</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3500806010.607772</v>
+        <v>3454446426.933466</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1598734767747217</v>
+        <v>0.1557159894323986</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03144303452077491</v>
+        <v>0.02487935089037653</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>120</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1750402999.367491</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1263872719.865649</v>
+        <v>1070042077.440469</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1545764729968326</v>
+        <v>0.1282633408296551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.020648976288758</v>
+        <v>0.02492396510568202</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>631936453.3891088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2062073853.635918</v>
+        <v>2231310209.351948</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1074382633853888</v>
+        <v>0.1171130701269069</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02074052455107902</v>
+        <v>0.02580965563994323</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>47</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1031036946.569938</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2176910148.582149</v>
+        <v>2040601281.87861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1023530971320503</v>
+        <v>0.101914895580374</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04218266335133904</v>
+        <v>0.04279971635236372</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1088455093.307291</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2938424939.889346</v>
+        <v>3498450890.568751</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1205466763881861</v>
+        <v>0.1005871960305508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05488532227782777</v>
+        <v>0.04557717761316982</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1469212535.175244</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1245183712.072327</v>
+        <v>1147451655.076038</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1805052993755693</v>
+        <v>0.125650850333958</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04141013078655809</v>
+        <v>0.05482252632923956</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>622591884.9208115</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3004681278.203395</v>
+        <v>3257104173.88194</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122363369022904</v>
+        <v>0.1316774238934902</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0285128568757718</v>
+        <v>0.03626438002287952</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1502340674.041607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1004359408.374908</v>
+        <v>1318091923.093278</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1198315086229727</v>
+        <v>0.1031594104333037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02415852239517977</v>
+        <v>0.02887253956366685</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>502179767.1736287</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>917561121.166407</v>
+        <v>1250520742.270106</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1064365937970334</v>
+        <v>0.08681617038901224</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02510342327499212</v>
+        <v>0.02971346703360865</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>458780512.4859263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3010978344.61285</v>
+        <v>3342816164.574774</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1265161072748567</v>
+        <v>0.1020416953225783</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02663826343224607</v>
+        <v>0.02054670319653357</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1505489231.574663</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2985427723.211256</v>
+        <v>2852992437.718011</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1208622745752033</v>
+        <v>0.1254749518997838</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03721987033820187</v>
+        <v>0.03762981138708885</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1492713871.577524</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4188945196.58176</v>
+        <v>5860954715.037985</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1458113368951466</v>
+        <v>0.09843470585665144</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04416037365375994</v>
+        <v>0.03832198509466875</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>161</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2094472602.039565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2266297330.166949</v>
+        <v>2139794024.582479</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08785384424512323</v>
+        <v>0.1091737764331264</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03062798310610864</v>
+        <v>0.03303960275897486</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1133148732.883239</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1054074444.746767</v>
+        <v>1446398200.575385</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07416631241769439</v>
+        <v>0.08485521166870798</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0524935683738549</v>
+        <v>0.05220659722925154</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>527037208.1989195</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1382788437.080676</v>
+        <v>1218192301.840219</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08187128824325943</v>
+        <v>0.1116389885830954</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02624448062318127</v>
+        <v>0.03769538093827957</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>691394262.6058894</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2805832124.368553</v>
+        <v>3087135640.203292</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1611271050795319</v>
+        <v>0.1768334912961369</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03997358146118023</v>
+        <v>0.04968561218040335</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>110</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1402916074.343209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1167239164.628823</v>
+        <v>1564416554.301071</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1167247321561155</v>
+        <v>0.1177905166795025</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01976635334822812</v>
+        <v>0.01962997949133548</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>583619592.7535262</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1168153206.049687</v>
+        <v>870679500.2312427</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07856508247105204</v>
+        <v>0.08699804109767383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02863367084795612</v>
+        <v>0.0440006256608004</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>584076584.7334634</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3091906448.355669</v>
+        <v>1976363173.997276</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1658708048137921</v>
+        <v>0.1330147415176951</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02578708454154053</v>
+        <v>0.01758923420838596</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1545953198.737966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2034081196.149641</v>
+        <v>2827244058.066641</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07539873375692302</v>
+        <v>0.09848111394303534</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03113529407953119</v>
+        <v>0.0318604830220014</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1017040630.04868</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1640632845.979695</v>
+        <v>2173480960.251156</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09626716460146088</v>
+        <v>0.1197783375072333</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02411096652560089</v>
+        <v>0.02538396461946424</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>820316452.3871067</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1672968798.843704</v>
+        <v>1467929475.255204</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1455296075929602</v>
+        <v>0.1456795491495529</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02584834889486999</v>
+        <v>0.02635922916301545</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>836484443.641732</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1427362054.414889</v>
+        <v>1766112623.647244</v>
       </c>
       <c r="F40" t="n">
-        <v>0.098561026629094</v>
+        <v>0.1516787558477729</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04378714446478478</v>
+        <v>0.04916468038648272</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>713681011.6038342</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2518740213.429734</v>
+        <v>2542037782.206226</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1159700254863063</v>
+        <v>0.1477936664280869</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0330957263077541</v>
+        <v>0.04448897884589276</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>93</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1259370130.171958</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4168804200.298726</v>
+        <v>4053105617.217577</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1173690775673281</v>
+        <v>0.09657008234660934</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04405498025721106</v>
+        <v>0.02905025409008519</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>123</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2084402141.038492</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2710798494.574025</v>
+        <v>1854630514.47812</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1317256539037229</v>
+        <v>0.1694840347792369</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02406593744651623</v>
+        <v>0.02001632110790588</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>129</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1355399274.769131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1810735886.212462</v>
+        <v>1618201384.909307</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06935080341389316</v>
+        <v>0.06653436842867864</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03406066222268274</v>
+        <v>0.03519258451957068</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>905368011.6917998</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1994674661.105976</v>
+        <v>2415914640.184557</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1744661237061003</v>
+        <v>0.1952701303768624</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04450524488016896</v>
+        <v>0.04068013781339631</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>997337320.9307604</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3883950251.308612</v>
+        <v>4864443977.138512</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1717841222916942</v>
+        <v>0.1325945110550449</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0467511199120231</v>
+        <v>0.03783487635869136</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>130</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1941975088.564822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5182986205.059844</v>
+        <v>4452711872.113836</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1895023856895895</v>
+        <v>0.1860690395621835</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03884499028299484</v>
+        <v>0.05875546365361892</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>98</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2591493168.745048</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3863133251.528221</v>
+        <v>4639232529.088923</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07121698758814737</v>
+        <v>0.08920255109622144</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03506997767586238</v>
+        <v>0.02579700602699037</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1931566668.127518</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1752440760.833237</v>
+        <v>1961669763.355273</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1520627344642414</v>
+        <v>0.1421228449265103</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03798898360146293</v>
+        <v>0.04225525915590454</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>876220373.1931018</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2984741846.808065</v>
+        <v>2597135787.154428</v>
       </c>
       <c r="F50" t="n">
-        <v>0.171769529054469</v>
+        <v>0.1574913213434807</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03898867754546245</v>
+        <v>0.04875592043965178</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>125</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1492370984.317695</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1186487103.328433</v>
+        <v>936410494.6337333</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1321348536943456</v>
+        <v>0.1365063596878756</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04996053712447836</v>
+        <v>0.04790798591376429</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>593243605.4172615</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4642935290.048483</v>
+        <v>5241689425.15958</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1120494344134445</v>
+        <v>0.1360053841399974</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05341111721938094</v>
+        <v>0.04056435733692772</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>151</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2321467663.676664</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2677933362.185094</v>
+        <v>3282543379.825322</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1252956757967236</v>
+        <v>0.1835013770648475</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02282210456339901</v>
+        <v>0.03396716294167735</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1338966735.774706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3090454638.654044</v>
+        <v>3268240849.571405</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1684194760069201</v>
+        <v>0.168995828490969</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03298025488526738</v>
+        <v>0.05042066158163149</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1545227311.980909</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3046122186.323017</v>
+        <v>3785038669.320568</v>
       </c>
       <c r="F55" t="n">
-        <v>0.14271263750705</v>
+        <v>0.1419180500560498</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02778802128668662</v>
+        <v>0.02718017298936551</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>100</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1523061025.966699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1733805344.229081</v>
+        <v>1146978112.896167</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1245446929343637</v>
+        <v>0.112179856716902</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04081519455875147</v>
+        <v>0.04091706839445135</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>866902679.7570611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3864738238.138744</v>
+        <v>3934123001.459753</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1485766361942411</v>
+        <v>0.1708422895317733</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02506305083545375</v>
+        <v>0.02239830133520304</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>116</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1932369196.09109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1175930233.682518</v>
+        <v>1169315170.222102</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1369723088756372</v>
+        <v>0.1509877949292589</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02449170350282934</v>
+        <v>0.03544184064838203</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>587965177.5561007</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3721567795.13198</v>
+        <v>5049980452.335232</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1080481164467</v>
+        <v>0.129627235415616</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03454852003308613</v>
+        <v>0.03546037631772299</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1860783886.939879</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3264820713.453177</v>
+        <v>2532984340.536493</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1946004695652933</v>
+        <v>0.1246734394529568</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02311503011860111</v>
+        <v>0.0238063593279603</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>113</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1632410454.866276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2175360652.773697</v>
+        <v>2336889365.747134</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1122236534347084</v>
+        <v>0.1318229234068725</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0208143144084803</v>
+        <v>0.02322466204687068</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>126</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1087680384.627878</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1302033803.139038</v>
+        <v>1828037044.772405</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1818548592634316</v>
+        <v>0.1253249501749411</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03241829941058247</v>
+        <v>0.04832383665500871</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>651016854.9073936</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4094823238.597173</v>
+        <v>3780041721.881034</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08053093136613532</v>
+        <v>0.08728917734681173</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03137516786662633</v>
+        <v>0.03858768702214232</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>104</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2047411677.489105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4753900149.938107</v>
+        <v>5223459340.663123</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697158382315146</v>
+        <v>0.160745785741915</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02791482190005323</v>
+        <v>0.0259400871897249</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>114</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2376950163.872378</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3628341535.342314</v>
+        <v>4770801786.247782</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1664595949276563</v>
+        <v>0.1626679284355897</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02941358308627341</v>
+        <v>0.0286102323624435</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>131</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1814170808.448906</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4103463339.289301</v>
+        <v>5128746941.421</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1484705022844846</v>
+        <v>0.1013782649669615</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04909906281347707</v>
+        <v>0.03837193265484477</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2051731648.78219</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3426717051.231832</v>
+        <v>2596725921.389294</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08265309209548216</v>
+        <v>0.07685893463055821</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05079639129236321</v>
+        <v>0.05042789409057456</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>116</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1713358507.793468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4145009263.082774</v>
+        <v>4098169907.060126</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1539359892642199</v>
+        <v>0.09687549580567141</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03788562882673606</v>
+        <v>0.0319703474052255</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2072504636.123419</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2063385327.462403</v>
+        <v>2240222621.151145</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1710666294394546</v>
+        <v>0.1764561359002544</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04527664785316132</v>
+        <v>0.0488142131920128</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1031692676.89203</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3040328524.497524</v>
+        <v>3385281430.058842</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08722992218495572</v>
+        <v>0.0762084509431515</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04507214376204782</v>
+        <v>0.03528850303122424</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>104</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1520164241.946722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5074834358.421538</v>
+        <v>4865593377.98395</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1785913603723814</v>
+        <v>0.1273647234145163</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03241059356622378</v>
+        <v>0.02215165736112067</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>134</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2537417290.546364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1935837094.856697</v>
+        <v>1987284292.842859</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06621404657132526</v>
+        <v>0.06666988419790207</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03932623036466537</v>
+        <v>0.03733403247567281</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>967918504.1491934</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3016886239.759773</v>
+        <v>2488390315.848825</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1047653247739068</v>
+        <v>0.07383963611372041</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05051889163952457</v>
+        <v>0.05236219112805675</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>139</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1508443114.322011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3979255679.634688</v>
+        <v>3553655602.444766</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1759776371666232</v>
+        <v>0.1211040068012029</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03097900711136948</v>
+        <v>0.0348070239532156</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>124</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1989627820.588402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1712127829.737565</v>
+        <v>1817723811.53265</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1188042586326517</v>
+        <v>0.1087209630471881</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0372617197056084</v>
+        <v>0.03541965150261293</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>856063906.0003095</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3402558374.132688</v>
+        <v>5073639410.568014</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07576372284600512</v>
+        <v>0.1109188699002984</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02164120186295496</v>
+        <v>0.03306215543967374</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1701279146.743082</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2140755337.699698</v>
+        <v>1643881374.865815</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1445777878303243</v>
+        <v>0.1583607614641599</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02649793206070472</v>
+        <v>0.01974245280436995</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1070377751.137959</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3221562511.036765</v>
+        <v>3722287561.077164</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09470901231435247</v>
+        <v>0.1274980350940083</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03609701505037383</v>
+        <v>0.05589406824229658</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>127</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1610781276.967332</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1914510865.202756</v>
+        <v>1462099268.860445</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115802076510247</v>
+        <v>0.14163618260271</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03890286365583026</v>
+        <v>0.02940821022762801</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>957255539.3436358</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3557708164.160121</v>
+        <v>5080635156.826468</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09585397142245002</v>
+        <v>0.09495562361976458</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02461831617627819</v>
+        <v>0.0322216817140071</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1778854059.548789</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3918511506.971151</v>
+        <v>4698079579.811262</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1165798153335126</v>
+        <v>0.1262978667870212</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03082692613608764</v>
+        <v>0.0221671653578986</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>85</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1959255713.663502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3804891092.365972</v>
+        <v>3760510307.21615</v>
       </c>
       <c r="F82" t="n">
-        <v>0.158987427297078</v>
+        <v>0.2010716981416525</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01821804931126961</v>
+        <v>0.02703868684048694</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>128</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1902445596.815788</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1681651481.309723</v>
+        <v>1567594280.268405</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1356989771462007</v>
+        <v>0.1196615461815354</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03134545100747017</v>
+        <v>0.03573222536621718</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>840825686.3225683</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2583024680.65049</v>
+        <v>1753933183.754435</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1122478544859127</v>
+        <v>0.09753906202127544</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03301692565182805</v>
+        <v>0.03634935674232024</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1291512259.933109</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2389468385.012689</v>
+        <v>3514943712.177084</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1522185578239308</v>
+        <v>0.1497460783789165</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05293637354390041</v>
+        <v>0.0389223326598595</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>137</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1194734185.252901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2093417853.376426</v>
+        <v>2636509688.272125</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1301436164555184</v>
+        <v>0.1340626374353464</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02734085784815807</v>
+        <v>0.02581181171598004</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>49</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1046708967.324406</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1223385104.217863</v>
+        <v>1371102340.189163</v>
       </c>
       <c r="F87" t="n">
-        <v>0.154300095134929</v>
+        <v>0.1536349783236158</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0328501137681268</v>
+        <v>0.03765317805425354</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>611692613.7011884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3669580859.206711</v>
+        <v>3311822837.024563</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1238258841610753</v>
+        <v>0.1650236851288507</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04000166146619424</v>
+        <v>0.03487101359930972</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>145</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1834790526.23348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2174812729.33569</v>
+        <v>3331978954.010792</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1068036653095624</v>
+        <v>0.1038829195696873</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04129219656084548</v>
+        <v>0.0382869095891107</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>123</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1087406463.276943</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1879520940.143858</v>
+        <v>1882179556.049417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1186346189435975</v>
+        <v>0.09719441404856344</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0386601877289961</v>
+        <v>0.03649516265347676</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>939760518.2591386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2004841879.761415</v>
+        <v>1584325701.245353</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1822371404859428</v>
+        <v>0.1316784563372081</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05926168672924888</v>
+        <v>0.04627943801207852</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1002420911.496681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1854032480.254637</v>
+        <v>2175725805.465544</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1040209822462649</v>
+        <v>0.09590222461864062</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04413055473467077</v>
+        <v>0.03687652634312912</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>102</v>
-      </c>
-      <c r="J92" t="n">
-        <v>927016175.2675216</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4410059235.99292</v>
+        <v>3670269296.054367</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1197605952107886</v>
+        <v>0.1368712288690941</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04715767067343137</v>
+        <v>0.04823704408063564</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2205029592.11871</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2319983689.249583</v>
+        <v>1897163420.59816</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1156675834807659</v>
+        <v>0.1417699255640968</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04075662802243211</v>
+        <v>0.03187418680258747</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1159991884.692914</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2555440882.350227</v>
+        <v>2144796515.987219</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09497917375656942</v>
+        <v>0.1261105154277447</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04661152364267054</v>
+        <v>0.04250052342751245</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1277720473.279766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1964246069.897341</v>
+        <v>1581398065.616237</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1031459868564717</v>
+        <v>0.08776327951050034</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04687482705771651</v>
+        <v>0.03639670309698584</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>982123025.7709116</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4836927221.67631</v>
+        <v>3387248092.047447</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1087892745278561</v>
+        <v>0.1258662484064484</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02354388292963448</v>
+        <v>0.01950747680307464</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>117</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2418463734.531748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2816166695.070813</v>
+        <v>2991279963.055939</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08083599432770529</v>
+        <v>0.1088178230924302</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02275524647850505</v>
+        <v>0.02634586026219668</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1408083319.779271</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2984022997.411945</v>
+        <v>2453977814.291008</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1248423875982621</v>
+        <v>0.09915780631317456</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03093864774630344</v>
+        <v>0.02319479702010682</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>115</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1492011483.483026</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4224144992.442319</v>
+        <v>3950852681.557142</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1253947445581109</v>
+        <v>0.1252751828413099</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02466317531884389</v>
+        <v>0.02357446549192761</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2112072584.798986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2263474732.283716</v>
+        <v>2206708201.76653</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1931720617207002</v>
+        <v>0.1787707237671269</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05830376767671938</v>
+        <v>0.05608372375304252</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>149</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1131737357.861083</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_366.xlsx
+++ b/output/fit_clients/fit_round_366.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2122109730.091091</v>
+        <v>1754450161.634819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1117622071666937</v>
+        <v>0.1013632708153031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02840749335019268</v>
+        <v>0.03759414060738905</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2231720660.849498</v>
+        <v>2143159478.705119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1715958886917957</v>
+        <v>0.1304600863997537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04662522459412777</v>
+        <v>0.04893006232339465</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3597070898.698285</v>
+        <v>3762472262.997427</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1168137794690909</v>
+        <v>0.1412495155510548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03282652729871779</v>
+        <v>0.03278119218453197</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3418647852.726055</v>
+        <v>4225477563.00058</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07105593533744194</v>
+        <v>0.1050554978997061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04908734249804851</v>
+        <v>0.04143112477512806</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2348849203.001482</v>
+        <v>2611612153.047241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105065154024376</v>
+        <v>0.1387044281606043</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05134276436917963</v>
+        <v>0.0361171685125984</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2694753447.484988</v>
+        <v>2398511993.49532</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0698359599654922</v>
+        <v>0.08183931973157475</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04912496726730979</v>
+        <v>0.03126777509031666</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2895207506.198533</v>
+        <v>3590167739.154229</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1339074827663004</v>
+        <v>0.1507451991857564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02056921448691273</v>
+        <v>0.02066947756932953</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1735246980.877521</v>
+        <v>2313258591.542808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1290031296023465</v>
+        <v>0.1235839581872895</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02403918808725221</v>
+        <v>0.0246346879955263</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4029213207.388542</v>
+        <v>5199890995.795864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1923693830431991</v>
+        <v>0.1778220678755143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0506962883104671</v>
+        <v>0.03539771211568222</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3067827168.518234</v>
+        <v>4163116685.929964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1709531332081562</v>
+        <v>0.1581007154132008</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04144090786385862</v>
+        <v>0.03054972962909971</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2959599276.142027</v>
+        <v>2701630238.417988</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1414866035004528</v>
+        <v>0.1477042020078605</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05367630879490711</v>
+        <v>0.0392119797364089</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4001684308.721071</v>
+        <v>3580312697.783636</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06181016700558415</v>
+        <v>0.07600548036746568</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03006612965411289</v>
+        <v>0.02416347924958765</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3113779755.760397</v>
+        <v>3219635167.736921</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1457145961304392</v>
+        <v>0.1531958659297709</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02789075534466419</v>
+        <v>0.04299470433326318</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1647071958.821148</v>
+        <v>1148508058.978534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09477109553685144</v>
+        <v>0.09449350232038538</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04438178612848284</v>
+        <v>0.03854026445861765</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2625262971.134683</v>
+        <v>2060559110.51873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1031586184204445</v>
+        <v>0.1154066237778249</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0398150516761409</v>
+        <v>0.0319548676032967</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3253694977.955803</v>
+        <v>3712139141.42168</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1143227228570056</v>
+        <v>0.1519253572533254</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04543498633546999</v>
+        <v>0.03558797912660125</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3454446426.933466</v>
+        <v>2423536607.025039</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1557159894323986</v>
+        <v>0.127550516467965</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02487935089037653</v>
+        <v>0.02432492289456048</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1070042077.440469</v>
+        <v>1292887324.236202</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1282633408296551</v>
+        <v>0.1633219799452014</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02492396510568202</v>
+        <v>0.02162262509526068</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2231310209.351948</v>
+        <v>2478596831.364139</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1171130701269069</v>
+        <v>0.1284312564188921</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02580965563994323</v>
+        <v>0.02011994518512762</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2040601281.87861</v>
+        <v>2692040944.423954</v>
       </c>
       <c r="F21" t="n">
-        <v>0.101914895580374</v>
+        <v>0.06343866572070012</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04279971635236372</v>
+        <v>0.02908800455552999</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3498450890.568751</v>
+        <v>4049060043.03278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1005871960305508</v>
+        <v>0.1164881635869958</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04557717761316982</v>
+        <v>0.0488116046262587</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1147451655.076038</v>
+        <v>1106857415.137953</v>
       </c>
       <c r="F23" t="n">
-        <v>0.125650850333958</v>
+        <v>0.1535357255044479</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05482252632923956</v>
+        <v>0.04602726366778353</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3257104173.88194</v>
+        <v>3706265587.73334</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1316774238934902</v>
+        <v>0.09635349998165138</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03626438002287952</v>
+        <v>0.03278292289034261</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1318091923.093278</v>
+        <v>944024594.6184912</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1031594104333037</v>
+        <v>0.1004697977869079</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02887253956366685</v>
+        <v>0.0200295574673348</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1250520742.270106</v>
+        <v>1456885896.639989</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08681617038901224</v>
+        <v>0.1097089003202468</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02971346703360865</v>
+        <v>0.02801892127143185</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3342816164.574774</v>
+        <v>4127689723.761398</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1020416953225783</v>
+        <v>0.102685243314346</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02054670319653357</v>
+        <v>0.02225408242706372</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2852992437.718011</v>
+        <v>2821556815.260724</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1254749518997838</v>
+        <v>0.1213210125275225</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03762981138708885</v>
+        <v>0.03424061667300389</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5860954715.037985</v>
+        <v>4373753256.075855</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09843470585665144</v>
+        <v>0.151013082815928</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03832198509466875</v>
+        <v>0.0449107713148242</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2139794024.582479</v>
+        <v>1660766551.986356</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1091737764331264</v>
+        <v>0.1065743598110765</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03303960275897486</v>
+        <v>0.03734307728389708</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1446398200.575385</v>
+        <v>1430301087.152602</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08485521166870798</v>
+        <v>0.1070343248380053</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05220659722925154</v>
+        <v>0.03938635434458636</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1218192301.840219</v>
+        <v>1603356254.221196</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1116389885830954</v>
+        <v>0.0862858647169371</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03769538093827957</v>
+        <v>0.03542595728603076</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3087135640.203292</v>
+        <v>2421493666.142176</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1768334912961369</v>
+        <v>0.1582289952713856</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04968561218040335</v>
+        <v>0.05664557223144421</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1564416554.301071</v>
+        <v>1009225070.826932</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1177905166795025</v>
+        <v>0.07502971517608507</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01962997949133548</v>
+        <v>0.01732218446368054</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>870679500.2312427</v>
+        <v>1175196032.551769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08699804109767383</v>
+        <v>0.08370769522550757</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0440006256608004</v>
+        <v>0.02920580374858919</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1976363173.997276</v>
+        <v>2827177437.3724</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1330147415176951</v>
+        <v>0.1233791369943082</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01758923420838596</v>
+        <v>0.02188243038477095</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2827244058.066641</v>
+        <v>1979049129.701575</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09848111394303534</v>
+        <v>0.08711110128561901</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0318604830220014</v>
+        <v>0.03103258978506105</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2173480960.251156</v>
+        <v>1794167057.898142</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1197783375072333</v>
+        <v>0.1039376596283077</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02538396461946424</v>
+        <v>0.03779006322364675</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1467929475.255204</v>
+        <v>1678607819.712236</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1456795491495529</v>
+        <v>0.135467882561155</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02635922916301545</v>
+        <v>0.02438573168026713</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1766112623.647244</v>
+        <v>1530668974.1042</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1516787558477729</v>
+        <v>0.09901370643409609</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04916468038648272</v>
+        <v>0.0537409471657003</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2542037782.206226</v>
+        <v>2141668805.252931</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1477936664280869</v>
+        <v>0.1224559225552686</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04448897884589276</v>
+        <v>0.03892771230318869</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4053105617.217577</v>
+        <v>2928734339.646677</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09657008234660934</v>
+        <v>0.104501833578112</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02905025409008519</v>
+        <v>0.04601337874634679</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1854630514.47812</v>
+        <v>1934267721.758577</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1694840347792369</v>
+        <v>0.1244749404394914</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02001632110790588</v>
+        <v>0.02411300767962277</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1618201384.909307</v>
+        <v>1680195403.487826</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06653436842867864</v>
+        <v>0.07281484615079978</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03519258451957068</v>
+        <v>0.02322571946860292</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2415914640.184557</v>
+        <v>2089526432.659246</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1952701303768624</v>
+        <v>0.1229763869016124</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04068013781339631</v>
+        <v>0.05535933165077036</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4864443977.138512</v>
+        <v>3869882628.106615</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1325945110550449</v>
+        <v>0.1482760097210047</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03783487635869136</v>
+        <v>0.03995347251365759</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4452711872.113836</v>
+        <v>3258159785.417602</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1860690395621835</v>
+        <v>0.1736461057305944</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05875546365361892</v>
+        <v>0.05821375688874309</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4639232529.088923</v>
+        <v>3365216658.582531</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08920255109622144</v>
+        <v>0.1035605036180524</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02579700602699037</v>
+        <v>0.03518368361583104</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1961669763.355273</v>
+        <v>1588177130.113251</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1421228449265103</v>
+        <v>0.157361416705909</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04225525915590454</v>
+        <v>0.04129770148290367</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2597135787.154428</v>
+        <v>3327115555.890949</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1574913213434807</v>
+        <v>0.1665115393768552</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04875592043965178</v>
+        <v>0.04952892280201171</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>936410494.6337333</v>
+        <v>1151903712.560664</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1365063596878756</v>
+        <v>0.1545419347510815</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04790798591376429</v>
+        <v>0.03819244101902869</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5241689425.15958</v>
+        <v>5280940355.321918</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1360053841399974</v>
+        <v>0.1062045860424366</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04056435733692772</v>
+        <v>0.04262351366299012</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3282543379.825322</v>
+        <v>3766037983.82343</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1835013770648475</v>
+        <v>0.1596044426333293</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03396716294167735</v>
+        <v>0.03073404817193745</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3268240849.571405</v>
+        <v>4894229531.940432</v>
       </c>
       <c r="F54" t="n">
-        <v>0.168995828490969</v>
+        <v>0.1205270007752373</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05042066158163149</v>
+        <v>0.03865502242316548</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3785038669.320568</v>
+        <v>3475424972.406295</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1419180500560498</v>
+        <v>0.2078696051511937</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02718017298936551</v>
+        <v>0.03207991337458366</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1146978112.896167</v>
+        <v>1245796906.926709</v>
       </c>
       <c r="F56" t="n">
-        <v>0.112179856716902</v>
+        <v>0.1462625913828491</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04091706839445135</v>
+        <v>0.05317363650460072</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3934123001.459753</v>
+        <v>3686258813.187993</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1708422895317733</v>
+        <v>0.1454361932656031</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02239830133520304</v>
+        <v>0.02460165486353339</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1169315170.222102</v>
+        <v>1499509554.024815</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1509877949292589</v>
+        <v>0.1476775071505341</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03544184064838203</v>
+        <v>0.03668199563815777</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5049980452.335232</v>
+        <v>3384161651.014522</v>
       </c>
       <c r="F59" t="n">
-        <v>0.129627235415616</v>
+        <v>0.08239834703755669</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03546037631772299</v>
+        <v>0.04236757446552019</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2532984340.536493</v>
+        <v>3559687753.558568</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1246734394529568</v>
+        <v>0.1692157210734423</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0238063593279603</v>
+        <v>0.0258636459326285</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2336889365.747134</v>
+        <v>3339285079.7883</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1318229234068725</v>
+        <v>0.1193854060916953</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02322466204687068</v>
+        <v>0.02008419655233796</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1828037044.772405</v>
+        <v>1459789071.736152</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1253249501749411</v>
+        <v>0.1306308047611407</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04832383665500871</v>
+        <v>0.03963991140841074</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3780041721.881034</v>
+        <v>5081519719.961185</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08728917734681173</v>
+        <v>0.09967290906038209</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03858768702214232</v>
+        <v>0.03004480194113638</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5223459340.663123</v>
+        <v>4302856561.406698</v>
       </c>
       <c r="F64" t="n">
-        <v>0.160745785741915</v>
+        <v>0.1174643594651197</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0259400871897249</v>
+        <v>0.02825294656765879</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4770801786.247782</v>
+        <v>5697922321.785559</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1626679284355897</v>
+        <v>0.1244033365609225</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0286102323624435</v>
+        <v>0.03187369751944105</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5128746941.421</v>
+        <v>5736542465.241589</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1013782649669615</v>
+        <v>0.1090654118980281</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03837193265484477</v>
+        <v>0.03702719354371149</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2596725921.389294</v>
+        <v>3372567676.068024</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07685893463055821</v>
+        <v>0.087928928811595</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05042789409057456</v>
+        <v>0.0476767726212755</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4098169907.060126</v>
+        <v>4416502732.380007</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09687549580567141</v>
+        <v>0.09724078990209266</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0319703474052255</v>
+        <v>0.0347517355631661</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2240222621.151145</v>
+        <v>2474309657.947706</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1764561359002544</v>
+        <v>0.1633075080699068</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0488142131920128</v>
+        <v>0.04437740735432878</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3385281430.058842</v>
+        <v>3716014931.30736</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0762084509431515</v>
+        <v>0.07239001094951651</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03528850303122424</v>
+        <v>0.04439814090660343</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4865593377.98395</v>
+        <v>4124038757.115537</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1273647234145163</v>
+        <v>0.1794875530378063</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02215165736112067</v>
+        <v>0.03222051134925114</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1987284292.842859</v>
+        <v>1936130706.012776</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06666988419790207</v>
+        <v>0.08079499695681139</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03733403247567281</v>
+        <v>0.03445948014206473</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2488390315.848825</v>
+        <v>2294726406.655791</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07383963611372041</v>
+        <v>0.1035328973228858</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05236219112805675</v>
+        <v>0.03462200803296927</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3553655602.444766</v>
+        <v>3281354732.729804</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1211040068012029</v>
+        <v>0.142210247917714</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0348070239532156</v>
+        <v>0.03357264852870594</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1817723811.53265</v>
+        <v>1992167016.011799</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087209630471881</v>
+        <v>0.1072559338860706</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03541965150261293</v>
+        <v>0.02314456167229515</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5073639410.568014</v>
+        <v>3916517928.234396</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1109188699002984</v>
+        <v>0.1087100034636584</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03306215543967374</v>
+        <v>0.02995061425995763</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1643881374.865815</v>
+        <v>1530158634.834925</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583607614641599</v>
+        <v>0.170926315304667</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01974245280436995</v>
+        <v>0.02721379808902585</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3722287561.077164</v>
+        <v>3211607967.160166</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1274980350940083</v>
+        <v>0.0885472310126894</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05589406824229658</v>
+        <v>0.03719052733327993</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1462099268.860445</v>
+        <v>1712568041.674004</v>
       </c>
       <c r="F79" t="n">
-        <v>0.14163618260271</v>
+        <v>0.1587586249304288</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02940821022762801</v>
+        <v>0.03459531562964298</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5080635156.826468</v>
+        <v>3916882569.178792</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09495562361976458</v>
+        <v>0.07737757499843247</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0322216817140071</v>
+        <v>0.02346551493718373</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4698079579.811262</v>
+        <v>4311755223.580816</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1262978667870212</v>
+        <v>0.1251568238721844</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0221671653578986</v>
+        <v>0.02980011044105136</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3760510307.21615</v>
+        <v>4551798559.306086</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2010716981416525</v>
+        <v>0.2036681455456413</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02703868684048694</v>
+        <v>0.01892753836897014</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1567594280.268405</v>
+        <v>2249842765.196016</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1196615461815354</v>
+        <v>0.1201250898352146</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03573222536621718</v>
+        <v>0.03684765955017882</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1753933183.754435</v>
+        <v>2088762541.277717</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09753906202127544</v>
+        <v>0.1000067669155239</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03634935674232024</v>
+        <v>0.04496954433248666</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3514943712.177084</v>
+        <v>3450765940.400569</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1497460783789165</v>
+        <v>0.1363245025270477</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0389223326598595</v>
+        <v>0.05246314889284193</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2636509688.272125</v>
+        <v>2480627207.41271</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1340626374353464</v>
+        <v>0.1729027223509947</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02581181171598004</v>
+        <v>0.02613465775382377</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1371102340.189163</v>
+        <v>1089381968.990395</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1536349783236158</v>
+        <v>0.175854356806674</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03765317805425354</v>
+        <v>0.03631230983175257</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3311822837.024563</v>
+        <v>3291606839.511403</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1650236851288507</v>
+        <v>0.1269314272320602</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03487101359930972</v>
+        <v>0.03032682601566337</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3331978954.010792</v>
+        <v>3162492126.609631</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1038829195696873</v>
+        <v>0.1300848563186404</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0382869095891107</v>
+        <v>0.03351073164830373</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1882179556.049417</v>
+        <v>2149230057.794257</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09719441404856344</v>
+        <v>0.1144801140554001</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03649516265347676</v>
+        <v>0.04836491698933847</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1584325701.245353</v>
+        <v>1333255881.432474</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1316784563372081</v>
+        <v>0.1442815530230692</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04627943801207852</v>
+        <v>0.05568923892278456</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2175725805.465544</v>
+        <v>1870476282.831764</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09590222461864062</v>
+        <v>0.1068936639955815</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03687652634312912</v>
+        <v>0.04051220825445683</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3670269296.054367</v>
+        <v>4293221686.981966</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1368712288690941</v>
+        <v>0.09068996402774822</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04823704408063564</v>
+        <v>0.04948070444228816</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1897163420.59816</v>
+        <v>1589443706.369214</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1417699255640968</v>
+        <v>0.1056257926196721</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03187418680258747</v>
+        <v>0.0358276002784703</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2144796515.987219</v>
+        <v>2867270525.431869</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1261105154277447</v>
+        <v>0.1256326262289864</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04250052342751245</v>
+        <v>0.05030652520964685</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1581398065.616237</v>
+        <v>1991193192.87484</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08776327951050034</v>
+        <v>0.1199463477113908</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03639670309698584</v>
+        <v>0.03908096988031869</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3387248092.047447</v>
+        <v>4143202635.70407</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1258662484064484</v>
+        <v>0.1586024013451361</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01950747680307464</v>
+        <v>0.02480767437902295</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2991279963.055939</v>
+        <v>2442801634.54149</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1088178230924302</v>
+        <v>0.1150234423936508</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02634586026219668</v>
+        <v>0.0319745859184259</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2453977814.291008</v>
+        <v>2881853253.614639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09915780631317456</v>
+        <v>0.1391193936337787</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02319479702010682</v>
+        <v>0.02788866767735797</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3950852681.557142</v>
+        <v>4737461427.54729</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1252751828413099</v>
+        <v>0.1692966171102866</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02357446549192761</v>
+        <v>0.02454196300129818</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2206708201.76653</v>
+        <v>3316979216.904054</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1787707237671269</v>
+        <v>0.1713147366683041</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05608372375304252</v>
+        <v>0.05770633676347516</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_366.xlsx
+++ b/output/fit_clients/fit_round_366.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1754450161.634819</v>
+        <v>1924975884.467178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1013632708153031</v>
+        <v>0.09702316890221875</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03759414060738905</v>
+        <v>0.03695531420697827</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2143159478.705119</v>
+        <v>1763997837.388348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1304600863997537</v>
+        <v>0.1475560533120038</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04893006232339465</v>
+        <v>0.043616107694307</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3762472262.997427</v>
+        <v>4539986697.677764</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1412495155510548</v>
+        <v>0.1591607132699392</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03278119218453197</v>
+        <v>0.02417276925568232</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>365</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55.9795616532104</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4225477563.00058</v>
+        <v>3021275995.982444</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1050554978997061</v>
+        <v>0.08011840212788622</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04143112477512806</v>
+        <v>0.03989911640933146</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>148</v>
+      </c>
+      <c r="J5" t="n">
+        <v>365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.43765291121106</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2611612153.047241</v>
+        <v>2870002020.11391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1387044281606043</v>
+        <v>0.1222251886512903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0361171685125984</v>
+        <v>0.04362761109785806</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2398511993.49532</v>
+        <v>2105538533.597558</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08183931973157475</v>
+        <v>0.09245313336282067</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03126777509031666</v>
+        <v>0.0467145355425585</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3590167739.154229</v>
+        <v>2589228624.990104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1507451991857564</v>
+        <v>0.217106274286365</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02066947756932953</v>
+        <v>0.02105327396391117</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>96</v>
+      </c>
+      <c r="J8" t="n">
+        <v>365</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34.60298961013784</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +752,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2313258591.542808</v>
+        <v>1499371284.93247</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1235839581872895</v>
+        <v>0.1690384736217988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0246346879955263</v>
+        <v>0.03304523480527305</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +781,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5199890995.795864</v>
+        <v>4322654722.812816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1778220678755143</v>
+        <v>0.202078071157408</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03539771211568222</v>
+        <v>0.04958971387383144</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>304</v>
+      </c>
+      <c r="J10" t="n">
+        <v>366</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4163116685.929964</v>
+        <v>2992205717.102339</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1581007154132008</v>
+        <v>0.1347233089565934</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03054972962909971</v>
+        <v>0.03634663875126702</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>153</v>
+      </c>
+      <c r="J11" t="n">
+        <v>364</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2701630238.417988</v>
+        <v>2873944602.510223</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1477042020078605</v>
+        <v>0.12643594445159</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0392119797364089</v>
+        <v>0.04910010404172372</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3580312697.783636</v>
+        <v>4794352935.066606</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07600548036746568</v>
+        <v>0.0766596601691968</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02416347924958765</v>
+        <v>0.03044575150618346</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>190</v>
+      </c>
+      <c r="J13" t="n">
+        <v>366</v>
+      </c>
+      <c r="K13" t="n">
+        <v>58.69279623419428</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3219635167.736921</v>
+        <v>2634831797.299845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1531958659297709</v>
+        <v>0.1460414759337408</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04299470433326318</v>
+        <v>0.03793114054031428</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1148508058.978534</v>
+        <v>1601341016.901334</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09449350232038538</v>
+        <v>0.08888563191895404</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03854026445861765</v>
+        <v>0.04143845447367264</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2060559110.51873</v>
+        <v>2809378910.870736</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1154066237778249</v>
+        <v>0.1032270633396038</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0319548676032967</v>
+        <v>0.03978474754185177</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3712139141.42168</v>
+        <v>3590925726.752025</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1519253572533254</v>
+        <v>0.172380623654144</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03558797912660125</v>
+        <v>0.03582890772686445</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>173</v>
+      </c>
+      <c r="J17" t="n">
+        <v>365</v>
+      </c>
+      <c r="K17" t="n">
+        <v>51.23143817241639</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2423536607.025039</v>
+        <v>3605951812.240083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.127550516467965</v>
+        <v>0.1480524082621035</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02432492289456048</v>
+        <v>0.02518741247279182</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>89</v>
+      </c>
+      <c r="J18" t="n">
+        <v>366</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1292887324.236202</v>
+        <v>1176957968.01552</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1633219799452014</v>
+        <v>0.1243897412095825</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02162262509526068</v>
+        <v>0.02107668411665517</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2478596831.364139</v>
+        <v>2689085139.512025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1284312564188921</v>
+        <v>0.1128897432286609</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02011994518512762</v>
+        <v>0.02278341788891487</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2692040944.423954</v>
+        <v>2397948487.804657</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06343866572070012</v>
+        <v>0.09090646130831345</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02908800455552999</v>
+        <v>0.03567243036567698</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4049060043.03278</v>
+        <v>3584029109.858813</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1164881635869958</v>
+        <v>0.1211680750278704</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0488116046262587</v>
+        <v>0.0448710525060503</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>101</v>
+      </c>
+      <c r="J22" t="n">
+        <v>366</v>
+      </c>
+      <c r="K22" t="n">
+        <v>60.2870169276978</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1106857415.137953</v>
+        <v>1479198669.653254</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1535357255044479</v>
+        <v>0.1254985509017907</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04602726366778353</v>
+        <v>0.03470841794678649</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3706265587.73334</v>
+        <v>2788217276.39837</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09635349998165138</v>
+        <v>0.1394405696960772</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03278292289034261</v>
+        <v>0.02298012578218236</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>112</v>
+      </c>
+      <c r="J24" t="n">
+        <v>363</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>944024594.6184912</v>
+        <v>924638938.610194</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1004697977869079</v>
+        <v>0.1190065572046924</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0200295574673348</v>
+        <v>0.03036162091997462</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1456885896.639989</v>
+        <v>975946322.6064022</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1097089003202468</v>
+        <v>0.07820798187146152</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02801892127143185</v>
+        <v>0.02435859960444465</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4127689723.761398</v>
+        <v>2955268925.064324</v>
       </c>
       <c r="F27" t="n">
-        <v>0.102685243314346</v>
+        <v>0.1545255588729397</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02225408242706372</v>
+        <v>0.02506167160071182</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>153</v>
+      </c>
+      <c r="J27" t="n">
+        <v>364</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2821556815.260724</v>
+        <v>2364626708.315241</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1213210125275225</v>
+        <v>0.1107963936809666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03424061667300389</v>
+        <v>0.04858828681127326</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4373753256.075855</v>
+        <v>5289818335.788074</v>
       </c>
       <c r="F29" t="n">
-        <v>0.151013082815928</v>
+        <v>0.1099761102177413</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0449107713148242</v>
+        <v>0.03198744497328031</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>321</v>
+      </c>
+      <c r="J29" t="n">
+        <v>365</v>
+      </c>
+      <c r="K29" t="n">
+        <v>58.15861652891686</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1660766551.986356</v>
+        <v>1644267263.360598</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1065743598110765</v>
+        <v>0.1193746765392042</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03734307728389708</v>
+        <v>0.02893032800494841</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1430301087.152602</v>
+        <v>1239874322.1815</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1070343248380053</v>
+        <v>0.08620161392596053</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03938635434458636</v>
+        <v>0.03878879606429242</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1603356254.221196</v>
+        <v>1511551050.86097</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0862858647169371</v>
+        <v>0.09065499557702045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03542595728603076</v>
+        <v>0.0298492842039869</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2421493666.142176</v>
+        <v>2977333389.101168</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1582289952713856</v>
+        <v>0.1950397981791489</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05664557223144421</v>
+        <v>0.04386382331742634</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1009225070.826932</v>
+        <v>1071294425.83243</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07502971517608507</v>
+        <v>0.1204401158551577</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01732218446368054</v>
+        <v>0.01958625547142754</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1175196032.551769</v>
+        <v>1264510176.704023</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08370769522550757</v>
+        <v>0.09274328592474589</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02920580374858919</v>
+        <v>0.0350388050552915</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2827177437.3724</v>
+        <v>2160034299.579489</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1233791369943082</v>
+        <v>0.1687726515039553</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02188243038477095</v>
+        <v>0.0184532334095911</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1979049129.701575</v>
+        <v>2752132306.625288</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08711110128561901</v>
+        <v>0.1094562750663888</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03103258978506105</v>
+        <v>0.03240141282864671</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1794167057.898142</v>
+        <v>1502216419.970119</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1039376596283077</v>
+        <v>0.07905794881200173</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03779006322364675</v>
+        <v>0.03421901869639388</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1678607819.712236</v>
+        <v>1986269683.856542</v>
       </c>
       <c r="F39" t="n">
-        <v>0.135467882561155</v>
+        <v>0.136006179315835</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02438573168026713</v>
+        <v>0.02067772662464265</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1530668974.1042</v>
+        <v>1326696183.189179</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09901370643409609</v>
+        <v>0.1621709295209517</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0537409471657003</v>
+        <v>0.05345903699503173</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2141668805.252931</v>
+        <v>2314155503.848915</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1224559225552686</v>
+        <v>0.1493376040659732</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03892771230318869</v>
+        <v>0.03509805428402065</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2928734339.646677</v>
+        <v>4142704257.465311</v>
       </c>
       <c r="F42" t="n">
-        <v>0.104501833578112</v>
+        <v>0.08556796150409138</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04601337874634679</v>
+        <v>0.03712478873684379</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>162</v>
+      </c>
+      <c r="J42" t="n">
+        <v>366</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1934267721.758577</v>
+        <v>2132347860.680707</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1244749404394914</v>
+        <v>0.1269055306602763</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02411300767962277</v>
+        <v>0.01869339464457263</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1680195403.487826</v>
+        <v>2246304480.279021</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07281484615079978</v>
+        <v>0.08265560394967608</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02322571946860292</v>
+        <v>0.03013402826681009</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2089526432.659246</v>
+        <v>1562078997.300727</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1229763869016124</v>
+        <v>0.1617261543858521</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05535933165077036</v>
+        <v>0.05197128589162095</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3869882628.106615</v>
+        <v>5271964480.553741</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1482760097210047</v>
+        <v>0.121871223196947</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03995347251365759</v>
+        <v>0.05853504598638296</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>219</v>
+      </c>
+      <c r="J46" t="n">
+        <v>366</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3258159785.417602</v>
+        <v>4718882466.180558</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1736461057305944</v>
+        <v>0.1374930037646346</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05821375688874309</v>
+        <v>0.0464075730176852</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>163</v>
+      </c>
+      <c r="J47" t="n">
+        <v>366</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3365216658.582531</v>
+        <v>4696723096.700092</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1035605036180524</v>
+        <v>0.08101493805732443</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03518368361583104</v>
+        <v>0.02415853518864351</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>187</v>
+      </c>
+      <c r="J48" t="n">
+        <v>366</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1588177130.113251</v>
+        <v>1286157701.07908</v>
       </c>
       <c r="F49" t="n">
-        <v>0.157361416705909</v>
+        <v>0.1782667777536482</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04129770148290367</v>
+        <v>0.03635385243162085</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3327115555.890949</v>
+        <v>3996918388.60704</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1665115393768552</v>
+        <v>0.1307672855305337</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04952892280201171</v>
+        <v>0.03461844845156833</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>122</v>
+      </c>
+      <c r="J50" t="n">
+        <v>366</v>
+      </c>
+      <c r="K50" t="n">
+        <v>67.55800289492056</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1151903712.560664</v>
+        <v>1056940456.536172</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1545419347510815</v>
+        <v>0.1651310863058616</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03819244101902869</v>
+        <v>0.0537486287981039</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5280940355.321918</v>
+        <v>3253799633.102691</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1062045860424366</v>
+        <v>0.1389119074238817</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04262351366299012</v>
+        <v>0.03921386862165945</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>216</v>
+      </c>
+      <c r="J52" t="n">
+        <v>364</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3766037983.82343</v>
+        <v>3223280214.413294</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1596044426333293</v>
+        <v>0.1770993330995271</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03073404817193745</v>
+        <v>0.02231191159582321</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4894229531.940432</v>
+        <v>4547129853.242757</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1205270007752373</v>
+        <v>0.117336720273788</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03865502242316548</v>
+        <v>0.03729494968409718</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>194</v>
+      </c>
+      <c r="J54" t="n">
+        <v>366</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3475424972.406295</v>
+        <v>3456883007.992778</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2078696051511937</v>
+        <v>0.2005535413289435</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03207991337458366</v>
+        <v>0.02639999910114275</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>175</v>
+      </c>
+      <c r="J55" t="n">
+        <v>365</v>
+      </c>
+      <c r="K55" t="n">
+        <v>50.33713254990629</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1245796906.926709</v>
+        <v>1502907378.307121</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1462625913828491</v>
+        <v>0.1513153321328287</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05317363650460072</v>
+        <v>0.05468461188090557</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3686258813.187993</v>
+        <v>4326344579.096895</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1454361932656031</v>
+        <v>0.1423182671121854</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02460165486353339</v>
+        <v>0.02758945424972285</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>151</v>
+      </c>
+      <c r="J57" t="n">
+        <v>366</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1499509554.024815</v>
+        <v>1550319119.366624</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1476775071505341</v>
+        <v>0.2018259442619331</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03668199563815777</v>
+        <v>0.03181860581553549</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3384161651.014522</v>
+        <v>4099996417.037983</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08239834703755669</v>
+        <v>0.1294262596113105</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04236757446552019</v>
+        <v>0.04947016856915661</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>178</v>
+      </c>
+      <c r="J59" t="n">
+        <v>365</v>
+      </c>
+      <c r="K59" t="n">
+        <v>56.40078525637728</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3559687753.558568</v>
+        <v>3578597163.890603</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1692157210734423</v>
+        <v>0.1429687222881989</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0258636459326285</v>
+        <v>0.02980877522262796</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>366</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3339285079.7883</v>
+        <v>2961870094.727849</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1193854060916953</v>
+        <v>0.1291052346678314</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02008419655233796</v>
+        <v>0.03068166230961649</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1459789071.736152</v>
+        <v>1289465774.352221</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1306308047611407</v>
+        <v>0.1854057588118124</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03963991140841074</v>
+        <v>0.0467895413945426</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5081519719.961185</v>
+        <v>4108251364.983671</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09967290906038209</v>
+        <v>0.08876042723542737</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03004480194113638</v>
+        <v>0.04369740806525801</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>180</v>
+      </c>
+      <c r="J63" t="n">
+        <v>366</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4302856561.406698</v>
+        <v>5546463833.479451</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1174643594651197</v>
+        <v>0.1305887720415501</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02825294656765879</v>
+        <v>0.02896895672823717</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>181</v>
+      </c>
+      <c r="J64" t="n">
+        <v>366</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5697922321.785559</v>
+        <v>4450369204.03773</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1244033365609225</v>
+        <v>0.1375172842699316</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03187369751944105</v>
+        <v>0.02505465475670273</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>278</v>
+      </c>
+      <c r="J65" t="n">
+        <v>365</v>
+      </c>
+      <c r="K65" t="n">
+        <v>57.73672144861187</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5736542465.241589</v>
+        <v>4601300405.029401</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1090654118980281</v>
+        <v>0.1022544884888651</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03702719354371149</v>
+        <v>0.04442957756318615</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>181</v>
+      </c>
+      <c r="J66" t="n">
+        <v>365</v>
+      </c>
+      <c r="K66" t="n">
+        <v>54.10859420882229</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3372567676.068024</v>
+        <v>2118265221.318863</v>
       </c>
       <c r="F67" t="n">
-        <v>0.087928928811595</v>
+        <v>0.07931247815650432</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0476767726212755</v>
+        <v>0.03833736519297281</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4416502732.380007</v>
+        <v>3867768766.281538</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09724078990209266</v>
+        <v>0.1532123461584681</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0347517355631661</v>
+        <v>0.03393561437494944</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>199</v>
+      </c>
+      <c r="J68" t="n">
+        <v>365</v>
+      </c>
+      <c r="K68" t="n">
+        <v>57.8863514424463</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2474309657.947706</v>
+        <v>1496963815.885909</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1633075080699068</v>
+        <v>0.1695449224598341</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04437740735432878</v>
+        <v>0.05407594444607908</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3716014931.30736</v>
+        <v>2667947797.082444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07239001094951651</v>
+        <v>0.07115066739362749</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04439814090660343</v>
+        <v>0.0307570595682697</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4124038757.115537</v>
+        <v>5324604701.666124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1794875530378063</v>
+        <v>0.1373765090743257</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03222051134925114</v>
+        <v>0.02354009183772125</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>264</v>
+      </c>
+      <c r="J71" t="n">
+        <v>366</v>
+      </c>
+      <c r="K71" t="n">
+        <v>58.83328183295232</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1936130706.012776</v>
+        <v>1896367500.014381</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08079499695681139</v>
+        <v>0.1084931936238606</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03445948014206473</v>
+        <v>0.03206864277682511</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2294726406.655791</v>
+        <v>2471873842.88358</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1035328973228858</v>
+        <v>0.09071475588574356</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03462200803296927</v>
+        <v>0.0400687267881101</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3281354732.729804</v>
+        <v>2788785034.740211</v>
       </c>
       <c r="F74" t="n">
-        <v>0.142210247917714</v>
+        <v>0.1235843717965161</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03357264852870594</v>
+        <v>0.02914999469083645</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>105</v>
+      </c>
+      <c r="J74" t="n">
+        <v>365</v>
+      </c>
+      <c r="K74" t="n">
+        <v>37.21042267013114</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1992167016.011799</v>
+        <v>2126281659.022142</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1072559338860706</v>
+        <v>0.1524262129841119</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02314456167229515</v>
+        <v>0.03413767113130725</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3916517928.234396</v>
+        <v>3797703858.164975</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1087100034636584</v>
+        <v>0.07524297057019183</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02995061425995763</v>
+        <v>0.02193440451209797</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>173</v>
+      </c>
+      <c r="J76" t="n">
+        <v>366</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1530158634.834925</v>
+        <v>2196429934.57009</v>
       </c>
       <c r="F77" t="n">
-        <v>0.170926315304667</v>
+        <v>0.1511899590111249</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02721379808902585</v>
+        <v>0.02345420149248505</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3211607967.160166</v>
+        <v>3613913979.60266</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0885472310126894</v>
+        <v>0.1255111912990857</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03719052733327993</v>
+        <v>0.04554320343817496</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>183</v>
+      </c>
+      <c r="J78" t="n">
+        <v>365</v>
+      </c>
+      <c r="K78" t="n">
+        <v>51.48924922510432</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1712568041.674004</v>
+        <v>1646868268.076093</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1587586249304288</v>
+        <v>0.1468526576821307</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03459531562964298</v>
+        <v>0.02734044603788093</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3916882569.178792</v>
+        <v>4648773705.74733</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07737757499843247</v>
+        <v>0.08892829938679299</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02346551493718373</v>
+        <v>0.03539104151497506</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>178</v>
+      </c>
+      <c r="J80" t="n">
+        <v>366</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4311755223.580816</v>
+        <v>4127312460.349463</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1251568238721844</v>
+        <v>0.1073139114740041</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02980011044105136</v>
+        <v>0.03167302077167394</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>169</v>
+      </c>
+      <c r="J81" t="n">
+        <v>366</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4551798559.306086</v>
+        <v>4001193681.539631</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2036681455456413</v>
+        <v>0.2166917579736111</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01892753836897014</v>
+        <v>0.01793879669065106</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>256</v>
+      </c>
+      <c r="J82" t="n">
+        <v>365</v>
+      </c>
+      <c r="K82" t="n">
+        <v>57.50660810233856</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2249842765.196016</v>
+        <v>1998096776.123947</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1201250898352146</v>
+        <v>0.1005447085546268</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03684765955017882</v>
+        <v>0.04086702034444207</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2088762541.277717</v>
+        <v>2528332941.01297</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1000067669155239</v>
+        <v>0.09866241470443608</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04496954433248666</v>
+        <v>0.03368061707583429</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3450765940.400569</v>
+        <v>3654890907.063529</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1363245025270477</v>
+        <v>0.1411738461032252</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05246314889284193</v>
+        <v>0.0403868052317504</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>366</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2480627207.41271</v>
+        <v>1714243154.97999</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1729027223509947</v>
+        <v>0.1111046727364227</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02613465775382377</v>
+        <v>0.01850980699869406</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1089381968.990395</v>
+        <v>1263116622.228613</v>
       </c>
       <c r="F87" t="n">
-        <v>0.175854356806674</v>
+        <v>0.1269531711055228</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03631230983175257</v>
+        <v>0.03023851439541451</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3291606839.511403</v>
+        <v>3506046968.200356</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1269314272320602</v>
+        <v>0.1449999943895408</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03032682601566337</v>
+        <v>0.0336051998955231</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3162492126.609631</v>
+        <v>2994273427.096488</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1300848563186404</v>
+        <v>0.1446426942300507</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03351073164830373</v>
+        <v>0.02974428219777335</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2149230057.794257</v>
+        <v>2094671503.171364</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1144801140554001</v>
+        <v>0.1236911985220104</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04836491698933847</v>
+        <v>0.04014977614007298</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1333255881.432474</v>
+        <v>2018946294.014266</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1442815530230692</v>
+        <v>0.1306585685632327</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05568923892278456</v>
+        <v>0.05347332595006474</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1870476282.831764</v>
+        <v>2364387394.936264</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1068936639955815</v>
+        <v>0.103308008358051</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04051220825445683</v>
+        <v>0.04600952270890485</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4293221686.981966</v>
+        <v>3278165418.736797</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09068996402774822</v>
+        <v>0.09489029317895038</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04948070444228816</v>
+        <v>0.0332340137880111</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>170</v>
+      </c>
+      <c r="J93" t="n">
+        <v>364</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1589443706.369214</v>
+        <v>1831978191.074535</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1056257926196721</v>
+        <v>0.1588128012736459</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0358276002784703</v>
+        <v>0.04296145531131929</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2867270525.431869</v>
+        <v>2427411580.01242</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1256326262289864</v>
+        <v>0.08891358047288248</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05030652520964685</v>
+        <v>0.04008517866813985</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1991193192.87484</v>
+        <v>2276118079.206017</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1199463477113908</v>
+        <v>0.139905040839675</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03908096988031869</v>
+        <v>0.03961357892827023</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4143202635.70407</v>
+        <v>3845455190.606177</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1586024013451361</v>
+        <v>0.1620474297823759</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02480767437902295</v>
+        <v>0.02763538405116203</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>189</v>
+      </c>
+      <c r="J97" t="n">
+        <v>366</v>
+      </c>
+      <c r="K97" t="n">
+        <v>59.27904590776812</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2442801634.54149</v>
+        <v>3321303544.464771</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1150234423936508</v>
+        <v>0.08613491547114897</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0319745859184259</v>
+        <v>0.03012538067648598</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>91</v>
+      </c>
+      <c r="J98" t="n">
+        <v>365</v>
+      </c>
+      <c r="K98" t="n">
+        <v>50.62257554754356</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2881853253.614639</v>
+        <v>2099580472.596626</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1391193936337787</v>
+        <v>0.1077735211182551</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02788866767735797</v>
+        <v>0.03481034490974813</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4737461427.54729</v>
+        <v>3081928401.34758</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1692966171102866</v>
+        <v>0.1353506476790891</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02454196300129818</v>
+        <v>0.02248956293441579</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>166</v>
+      </c>
+      <c r="J100" t="n">
+        <v>365</v>
+      </c>
+      <c r="K100" t="n">
+        <v>38.80633327583107</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3316979216.904054</v>
+        <v>3337328620.753522</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1713147366683041</v>
+        <v>0.171175183434266</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05770633676347516</v>
+        <v>0.0414434173049081</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
